--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-patient-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
